--- a/Lab4/Database/Lab 6.xlsx
+++ b/Lab4/Database/Lab 6.xlsx
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -157,6 +157,9 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -463,7 +466,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +495,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -512,7 +515,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -532,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>300</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -552,7 +555,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>300</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -572,7 +575,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -592,7 +595,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -612,7 +615,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -632,7 +635,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>300</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -652,7 +655,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>200</v>
       </c>
       <c r="B10" s="3" t="s">
